--- a/product_list.xlsx
+++ b/product_list.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,19 +54,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -77,75 +77,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -438,7 +370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,14 +378,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="25"/>
-    <col customWidth="1" max="2" min="2" width="25"/>
-    <col customWidth="1" max="3" min="3" width="25"/>
-    <col customWidth="1" max="4" min="4" width="25"/>
-    <col customWidth="1" max="5" min="5" width="25"/>
-    <col customWidth="1" max="6" min="6" width="25"/>
-    <col customWidth="1" max="7" min="7" width="25"/>
-    <col customWidth="1" max="8" min="8" width="25"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -521,7 +453,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>75</v>
@@ -554,7 +486,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>40</v>
@@ -573,7 +505,11 @@
           <t>Avize</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr"/>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Merivan</t>
+        </is>
+      </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
           <t>5 Katlı Altın/Altın Lüks Avize</t>
@@ -583,7 +519,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1500</v>
+        <v>2250</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>2500</v>
@@ -616,7 +552,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>2500</v>
@@ -626,45 +562,12 @@
         <v/>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>213</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>123</v>
-      </c>
-      <c r="H6" s="2">
-        <f>G6-F6</f>
-        <v/>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:H8">
-    <cfRule dxfId="0" priority="1" type="expression">
+    <cfRule type="expression" priority="1" dxfId="0">
       <formula>$H1&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>